--- a/Audit et recommendations/Audit et recommendations.xlsx
+++ b/Audit et recommendations/Audit et recommendations.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Audit" sheetId="1" r:id="rId1"/>
+    <sheet name="recommandations" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
   <si>
     <t>Catégorie</t>
   </si>
@@ -152,9 +153,6 @@
     <t xml:space="preserve">Modifier la structure du site pour respecter un ordre descendant des niveaux de titres </t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.dev/heading-order/ </t>
-  </si>
-  <si>
     <t xml:space="preserve">Les titres de sections ne respectent pas un ordre descendant logique et cela risque d'impacter négativement la navigation de personnes utilisant des technologies d'assistance </t>
   </si>
   <si>
@@ -279,6 +277,30 @@
   </si>
   <si>
     <t>https://www.oncrawl.com/technical-seo/page-content-html5-tags/</t>
+  </si>
+  <si>
+    <t>https://www.getbrconsulting.com/a11y_rules/heading-order/</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/WAI/WCAG21/Understanding/contrast-minimum.html</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/WAI/standards-guidelines/act/rules/link-non-empty-accessible-name-c487ae/</t>
+  </si>
+  <si>
+    <t>https://uxmovement.com/buttons/why-your-links-need-a-hover-effect/</t>
+  </si>
+  <si>
+    <t>https://webaim.org/techniques/keyboard/</t>
+  </si>
+  <si>
+    <t>https://www.searchenginejournal.com/on-page-seo/title-tag-optimization/</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/search/docs/advanced/guidelines/hidden-text-links</t>
+  </si>
+  <si>
+    <t>https://backlinko.com/nofollow-link</t>
   </si>
 </sst>
 </file>
@@ -595,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -693,7 +715,7 @@
     </row>
     <row r="4" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -713,7 +735,7 @@
     </row>
     <row r="5" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
@@ -733,7 +755,7 @@
     </row>
     <row r="6" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>28</v>
@@ -753,13 +775,13 @@
     </row>
     <row r="7" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>38</v>
@@ -768,100 +790,108 @@
         <v>40</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -888,16 +918,19 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>70</v>
+      <c r="F14" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -905,16 +938,19 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>74</v>
+      <c r="F15" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -922,16 +958,19 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>78</v>
+      <c r="F16" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -939,19 +978,19 @@
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1960,9 +1999,157 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1"/>
-    <hyperlink ref="F7" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId2"/>
+    <hyperlink ref="F12" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44" style="1" customWidth="1"/>
+    <col min="3" max="22" width="10.5546875" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+    </row>
+    <row r="2" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Audit et recommendations/Audit et recommendations.xlsx
+++ b/Audit et recommendations/Audit et recommendations.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="120">
   <si>
     <t>Catégorie</t>
   </si>
@@ -51,9 +51,6 @@
     <t>https://developer.mozilla.org/en-US/docs/Web/Media/Formats/Image_types</t>
   </si>
   <si>
-    <t>Accsessibilité &amp; SEO</t>
-  </si>
-  <si>
     <t>Format des images</t>
   </si>
   <si>
@@ -192,18 +189,9 @@
     <t xml:space="preserve">Modifier les couleurs des élements problématiques </t>
   </si>
   <si>
-    <t>Liens mal identifiés</t>
-  </si>
-  <si>
     <t>Eviter les noms comme "ici" ou "voir plus". Préferer des noms complet et représentatifs du contenu du lien</t>
   </si>
   <si>
-    <t>Certains liens sont mal identifiés et représentent mal leur contenu, et d'autres ne disposent pas de texte ce qui est particulièrement problématique pour les personnes utilisant des lecteurs d'écrans</t>
-  </si>
-  <si>
-    <t>Modifier les noms de liens et rajouter du texte aux liens contenant seulement des icones</t>
-  </si>
-  <si>
     <t>Abscence d'animations liens navigation</t>
   </si>
   <si>
@@ -301,13 +289,112 @@
   </si>
   <si>
     <t>https://backlinko.com/nofollow-link</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Taille des scripts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Des scripts trop volumineux peuvent ralentir le chargement de la page </t>
+  </si>
+  <si>
+    <t>Minifier les fichiers scripts et style</t>
+  </si>
+  <si>
+    <t>https://oxosolutions.com/minify-html/</t>
+  </si>
+  <si>
+    <t>Liens sans noms</t>
+  </si>
+  <si>
+    <t>Certains liens n'ont pas de noms et représentent mal leur contenu, ce qui est particulièrement problématique pour les personnes utilisant des lecteurs d'écrans</t>
+  </si>
+  <si>
+    <t>Rajouter du texte aux liens contenant seulement des icones</t>
+  </si>
+  <si>
+    <t>UX</t>
+  </si>
+  <si>
+    <t>Mauvais nom de liens</t>
+  </si>
+  <si>
+    <t>Le nom du lien de navigation pour la page contact ne donne aucunes indications sur le contenu de la page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toujours utiliser du texte dans les liens </t>
+  </si>
+  <si>
+    <t>Changer le nom du lien pour la page contact</t>
+  </si>
+  <si>
+    <t>Format mobile</t>
+  </si>
+  <si>
+    <t>Mettre en place un contenu dit responsive qui s'adapte à toute taille d'écran</t>
+  </si>
+  <si>
+    <t>Affiner le style de la page pour des tailles d'écran de type mobile</t>
+  </si>
+  <si>
+    <t>https://www.webfx.com/web-design/why-responsive-design-important.html#:~:text=Responsive%20design%20can%20help%20you,your%20rankings%20in%20search%20engines.</t>
+  </si>
+  <si>
+    <t>Abscence d'étiquettes pour les champs du formulaire de contact</t>
+  </si>
+  <si>
+    <t>Les champs de formulaires n'ont pas d'étiquettes pour indiquer ce qu'il faut y renseigner. Ceci peut poser problèmes pour les personnes utilisant un lecteur d'écran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans un formulaire, chaque champ doit avoir une étiquette visible, lisible et pertinente </t>
+  </si>
+  <si>
+    <t>Ajouter des étiquettes aux champs du formulaire</t>
+  </si>
+  <si>
+    <t>https://web.dev/label/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>https://www.searchenginejournal.com/google-valid-html/258881/</t>
+  </si>
+  <si>
+    <t>Erreurs HTML et CSS</t>
+  </si>
+  <si>
+    <t>Lorsque l'on passe les fichiers HTML et CSS au validateur W3C nous observons plusieurs erreurs. Bien que Google ne semble pas encore y trouver d'inconvénients il vaut mieux y remédier au cas où cela puisse changer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S'assurer que les fichiers HTML et CSS passent le validateur W3C sans erreurs </t>
+  </si>
+  <si>
+    <t>Corriger les erreurs HTML et CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiquer la langue française comme la langue de la page Remplir les balises titre et description </t>
+  </si>
+  <si>
+    <t>La page ne s'adapte pas correctement au format mobile et la taille de police de certains élements de texte est trop petite</t>
+  </si>
+  <si>
+    <t>Réécrire le texte alternatif des images</t>
+  </si>
+  <si>
+    <t>Modifier les couleurs des éléments au niveau de contraste insuffisant</t>
+  </si>
+  <si>
+    <t>Supprimer le texte caché et supprimer les liens du footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer le nom du lien pour la page contact et affiner le format mobile </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -321,21 +408,27 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -343,6 +436,13 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -377,27 +477,27 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -615,402 +715,464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1008"/>
+  <dimension ref="A1:F1011"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="62.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61" style="1" customWidth="1"/>
-    <col min="7" max="26" width="10.5546875" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="11.33203125" style="1"/>
+    <col min="1" max="2" width="21.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="66.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="44" style="2" customWidth="1"/>
+    <col min="6" max="6" width="61" style="2" customWidth="1"/>
+    <col min="7" max="26" width="10.5546875" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="11.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-    </row>
-    <row r="2" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="2"/>
-    </row>
+    </row>
+    <row r="22" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1996,158 +2158,144 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1"/>
-    <hyperlink ref="F8" r:id="rId2"/>
-    <hyperlink ref="F12" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F5" r:id="rId2"/>
+    <hyperlink ref="F9" r:id="rId3"/>
+    <hyperlink ref="F7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44" style="1" customWidth="1"/>
-    <col min="3" max="22" width="10.5546875" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.33203125" style="1"/>
+    <col min="1" max="1" width="21.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="44" style="2" customWidth="1"/>
+    <col min="3" max="22" width="10.5546875" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="11.33203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-    </row>
-    <row r="2" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+    </row>
+    <row r="2" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Audit et recommendations/Audit et recommendations.xlsx
+++ b/Audit et recommendations/Audit et recommendations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Audit" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="125">
   <si>
     <t>Catégorie</t>
   </si>
@@ -388,6 +388,21 @@
   </si>
   <si>
     <t xml:space="preserve">Changer le nom du lien pour la page contact et affiner le format mobile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chargement des scripts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le navigateur charge le script pendant que la page se charge ce qui ralentit l'affichage de cette dernière </t>
+  </si>
+  <si>
+    <t>Executer le script après le chargement de la page HTML</t>
+  </si>
+  <si>
+    <t>Utiliser l'attribut defer pour executer le script</t>
+  </si>
+  <si>
+    <t>https://www.kadiska.com/blog-how-to-minimize-performance-impact-of-your-javascripts-by-using-defer-or-async-attributes/</t>
   </si>
 </sst>
 </file>
@@ -715,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1011"/>
+  <dimension ref="A1:F1012"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -977,139 +992,139 @@
         <v>87</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1117,39 +1132,39 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1157,22 +1172,41 @@
         <v>95</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2161,6 +2195,7 @@
     <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
@@ -2177,7 +2212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
